--- a/myaddons/cj_stock/static/template/import_inventory_detail.xlsx
+++ b/myaddons/cj_stock/static/template/import_inventory_detail.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>物料编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,12 +38,16 @@
 3、不可以改变表格格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>单位成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,12 +77,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,11 +114,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -125,12 +136,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -191,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,9 +235,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +270,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,34 +446,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.25" customHeight="1">
+    <row r="1" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="52.5" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="34.5" customHeight="1">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,96 +486,116 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myaddons/cj_stock/static/template/import_inventory_detail.xlsx
+++ b/myaddons/cj_stock/static/template/import_inventory_detail.xlsx
@@ -32,14 +32,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>填写要求：
-1、物料编码、在手数量必须填写
-2、在手数量必须是数字，且须大于0
-3、不可以改变表格格式</t>
+    <t>单位成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位成本</t>
+    <t>填写要求：
+1、物料编码、在手数量、单位成本必须填写
+2、在手数量、单位成本必须是数字，且须大于0
+3、不可以改变表格格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,16 +133,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,16 +461,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -486,12 +486,12 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
